--- a/data/trans_dic/P36$pan-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.64624515509021</v>
+        <v>0.6513845318734763</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6455571826416681</v>
+        <v>0.6437988609629978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7514787118786462</v>
+        <v>0.7571646388705292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5702651039014656</v>
+        <v>0.5721400000519243</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6888462993589163</v>
+        <v>0.6932265521972801</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7475254508386936</v>
+        <v>0.7511527840761619</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6296909031943674</v>
+        <v>0.6260773450496777</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6812457663551011</v>
+        <v>0.6842735137757954</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7663805924206745</v>
+        <v>0.7685341892937839</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7567402151519272</v>
+        <v>0.7620617284123756</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7489836302402187</v>
+        <v>0.7519512532220017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8506503295836151</v>
+        <v>0.8529106976451544</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.695288398556106</v>
+        <v>0.6934695074131406</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8023675224413581</v>
+        <v>0.8014735570606553</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8401497590448385</v>
+        <v>0.8424545403074263</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7092551083730941</v>
+        <v>0.7119648735324672</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.762271352134537</v>
+        <v>0.7613888718908149</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8326027280887196</v>
+        <v>0.8337945706321707</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7687369486302759</v>
+        <v>0.7682689486590277</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.753922806251371</v>
+        <v>0.7547665619971524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8376637647835704</v>
+        <v>0.841424659327951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8245803068247261</v>
+        <v>0.8247011877423231</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8363352818185782</v>
+        <v>0.8342121178577209</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8924948739587623</v>
+        <v>0.8917713951953917</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8072846453527213</v>
+        <v>0.8048252789736288</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8119875756402036</v>
+        <v>0.8079685185087576</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8737683106440047</v>
+        <v>0.8755893634919897</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8402820931946201</v>
+        <v>0.8431475286228574</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8325655157379995</v>
+        <v>0.8298670998469172</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8984557859161059</v>
+        <v>0.8993210529677815</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8842798268433455</v>
+        <v>0.8834547686620077</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8951275407155986</v>
+        <v>0.8954206463491797</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9414037252912211</v>
+        <v>0.9402515180954325</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8538983568323947</v>
+        <v>0.8538062702204384</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8584524041247471</v>
+        <v>0.8566597294744768</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9123209701706111</v>
+        <v>0.9132005394566225</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8019836658853927</v>
+        <v>0.7995254071829818</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7757946805789169</v>
+        <v>0.7791181443372321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7973036910845185</v>
+        <v>0.7937262051105433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8027670961369028</v>
+        <v>0.8076472768138854</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7652861053367528</v>
+        <v>0.7679305521367555</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8200875537831648</v>
+        <v>0.8166175241878576</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8152516197933484</v>
+        <v>0.8173391780686822</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7822486106966504</v>
+        <v>0.7797014196949735</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8175816286258655</v>
+        <v>0.8191441263855893</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8842171138398978</v>
+        <v>0.8835322775204645</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8613437012798582</v>
+        <v>0.8629459059487942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.878576366391744</v>
+        <v>0.8811969788875352</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8820952639452563</v>
+        <v>0.8819892590287036</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8512358162938055</v>
+        <v>0.8547516065111846</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8941038816904325</v>
+        <v>0.8951997667240149</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8715501251750528</v>
+        <v>0.8722674724533296</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8427099585867887</v>
+        <v>0.8452339509343878</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.87537297428712</v>
+        <v>0.875783940185916</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6313892781676276</v>
+        <v>0.6292363044699278</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7486863470996243</v>
+        <v>0.7529033152472453</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7389010764216616</v>
+        <v>0.7371571349794559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6581936614325433</v>
+        <v>0.6598541488239411</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8059403111916916</v>
+        <v>0.8089657734550934</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8012250496770248</v>
+        <v>0.7976083184981743</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6573323613357249</v>
+        <v>0.6599311223813525</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7924368709287056</v>
+        <v>0.794456616964781</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7777307460383648</v>
+        <v>0.7810749404721707</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.731723393835745</v>
+        <v>0.7233482448299218</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8363181374008498</v>
+        <v>0.8343196971009164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8249942285362643</v>
+        <v>0.823620144499959</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7500294241787823</v>
+        <v>0.7486821799325568</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.883768717835872</v>
+        <v>0.8863060363654363</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8759838468591785</v>
+        <v>0.8765570004177399</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7224644644045276</v>
+        <v>0.7250533128005771</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8502815177234451</v>
+        <v>0.8506127271812902</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8393275530980842</v>
+        <v>0.8405223318023501</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5812097474082506</v>
+        <v>0.5778967560416188</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6538155783235569</v>
+        <v>0.6540020220395437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8734498778034189</v>
+        <v>0.8757165103557685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6288405146169017</v>
+        <v>0.628860675585157</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7792713405642421</v>
+        <v>0.7820821306467519</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8294113464991458</v>
+        <v>0.8293853170978827</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6282643831871429</v>
+        <v>0.6273369624066152</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7358314406138795</v>
+        <v>0.7323090692323021</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.866774940409396</v>
+        <v>0.8672005335169409</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7140721382674259</v>
+        <v>0.7080400096538018</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7831749978884109</v>
+        <v>0.7905732625321172</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9516720122141777</v>
+        <v>0.9499737171645951</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7633543708509342</v>
+        <v>0.758032268617262</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8793585249393094</v>
+        <v>0.8801327300331658</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9180417768296689</v>
+        <v>0.9178006214347897</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7155788053125197</v>
+        <v>0.7195109829480383</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8184748559980857</v>
+        <v>0.81752212169478</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9254787861698149</v>
+        <v>0.9244069097225686</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6818302073152637</v>
+        <v>0.6790226944703732</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7083702604709067</v>
+        <v>0.7063318611966649</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6994968292500121</v>
+        <v>0.7011316975682926</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6472050742075079</v>
+        <v>0.639280708818617</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6863470637360491</v>
+        <v>0.688643250995118</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.785290178462339</v>
+        <v>0.7900333577939551</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6803762001176453</v>
+        <v>0.6777406281302002</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7189974478698395</v>
+        <v>0.7156572680043902</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7582133495286695</v>
+        <v>0.7579464110982951</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7823549358179714</v>
+        <v>0.786080516841447</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8118605890404406</v>
+        <v>0.814164916942766</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8071510040180916</v>
+        <v>0.8065836362128108</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7527164698893487</v>
+        <v>0.7526638162094209</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7895602895550675</v>
+        <v>0.7959551660553548</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8794323011202223</v>
+        <v>0.8789767989595252</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.757372478387684</v>
+        <v>0.7520833031925531</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7903067853533494</v>
+        <v>0.7887436483902177</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.825909161325498</v>
+        <v>0.8333307885826896</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7371668287120444</v>
+        <v>0.7349143152122903</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7348986578097563</v>
+        <v>0.7365771059322948</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8025637191044324</v>
+        <v>0.8024665374517274</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7335996713667559</v>
+        <v>0.7391517591246856</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7412835645948435</v>
+        <v>0.7433820836379058</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8513432909945662</v>
+        <v>0.849319660949839</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7428260561132507</v>
+        <v>0.7497046096435276</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7511904378189251</v>
+        <v>0.7483619139783423</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8319910022870288</v>
+        <v>0.8352051134101004</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.805407000017249</v>
+        <v>0.807590162324867</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.806251646250656</v>
+        <v>0.8070901659418577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8671539270227349</v>
+        <v>0.8649968527127589</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.801598413491418</v>
+        <v>0.8020256972704082</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.807177409002482</v>
+        <v>0.8077727806005772</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8994813396938262</v>
+        <v>0.9015079458744969</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7925247911593919</v>
+        <v>0.7957703892194949</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7981667688693967</v>
+        <v>0.7983938646845459</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8735472701662476</v>
+        <v>0.8747306413755747</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.772067180507181</v>
+        <v>0.7700956910186406</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8688160517216417</v>
+        <v>0.8718849835363394</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8671810569564553</v>
+        <v>0.8708859280025458</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8189423660077635</v>
+        <v>0.8184306652209682</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8772267792606878</v>
+        <v>0.8767929522239136</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8904850635319407</v>
+        <v>0.8891885217317651</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8050514941383897</v>
+        <v>0.8057390105194964</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8817560471738297</v>
+        <v>0.8812460684402863</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8861621035307877</v>
+        <v>0.886669161435828</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8302268131545661</v>
+        <v>0.8267559230421097</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9181220525838072</v>
+        <v>0.9193269577431608</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9136141814646144</v>
+        <v>0.9153594086589529</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8711981654318316</v>
+        <v>0.8698460913323166</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9195560333571366</v>
+        <v>0.9204253424891701</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9299594963981989</v>
+        <v>0.9316600077936115</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8429490081987432</v>
+        <v>0.8450208599551782</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9120551418810486</v>
+        <v>0.9145066930111797</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9160996301144195</v>
+        <v>0.91706998664323</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7487376326431997</v>
+        <v>0.7496460589564471</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.78680089932798</v>
+        <v>0.787772744036492</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8312194146000388</v>
+        <v>0.8308201635038298</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7669750086266356</v>
+        <v>0.7672109573682828</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8173177996480228</v>
+        <v>0.8158052279970085</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8646320072350758</v>
+        <v>0.8663823838687768</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7630220550640877</v>
+        <v>0.7626273904366732</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8049634536784916</v>
+        <v>0.8053918404266135</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8522218738579915</v>
+        <v>0.8521557232938826</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7793740457275549</v>
+        <v>0.77931317522743</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.816257104749986</v>
+        <v>0.8157739306433303</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8563953886096285</v>
+        <v>0.8565851958598665</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7949332181658507</v>
+        <v>0.795292612052128</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.842490315123731</v>
+        <v>0.8425871920255886</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8873041381516282</v>
+        <v>0.8879543529847159</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7836579363485385</v>
+        <v>0.7825570824425695</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8245257559547537</v>
+        <v>0.824907642659456</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.870209956740843</v>
+        <v>0.8696541999232981</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>175288</v>
+        <v>176682</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>190270</v>
+        <v>189752</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>220755</v>
+        <v>222425</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>148135</v>
+        <v>148622</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>197221</v>
+        <v>198475</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>215813</v>
+        <v>216860</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>334370</v>
+        <v>332451</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>395834</v>
+        <v>397593</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>446389</v>
+        <v>447643</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>205259</v>
+        <v>206702</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>220754</v>
+        <v>221629</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>249888</v>
+        <v>250552</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>180612</v>
+        <v>180139</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>229723</v>
+        <v>229467</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>242554</v>
+        <v>243219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>376619</v>
+        <v>378058</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>442913</v>
+        <v>442400</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>484961</v>
+        <v>485655</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>378245</v>
+        <v>378014</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>380344</v>
+        <v>380770</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>419158</v>
+        <v>421040</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>415546</v>
+        <v>415607</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>436349</v>
+        <v>435241</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>466850</v>
+        <v>466471</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>804042</v>
+        <v>801592</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>833283</v>
+        <v>829158</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>894278</v>
+        <v>896142</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>413447</v>
+        <v>414857</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>420018</v>
+        <v>418657</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>449577</v>
+        <v>450010</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>445632</v>
+        <v>445216</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>467023</v>
+        <v>467176</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>492433</v>
+        <v>491831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>850468</v>
+        <v>850377</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>880966</v>
+        <v>879126</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>933736</v>
+        <v>934636</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>255709</v>
+        <v>254925</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>250683</v>
+        <v>251756</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>253993</v>
+        <v>252853</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>269258</v>
+        <v>270895</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>260978</v>
+        <v>261880</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>275803</v>
+        <v>274636</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>533385</v>
+        <v>534751</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>519530</v>
+        <v>517839</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>535413</v>
+        <v>536436</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>281929</v>
+        <v>281711</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>278326</v>
+        <v>278844</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>279884</v>
+        <v>280719</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>295865</v>
+        <v>295830</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>290288</v>
+        <v>291487</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>300695</v>
+        <v>301064</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>570219</v>
+        <v>570688</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>559686</v>
+        <v>561362</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>573259</v>
+        <v>573528</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>225840</v>
+        <v>225070</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>279184</v>
+        <v>280756</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>273367</v>
+        <v>272722</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>244490</v>
+        <v>245107</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>313471</v>
+        <v>314648</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>310301</v>
+        <v>308900</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>479290</v>
+        <v>481185</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>603717</v>
+        <v>605256</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>588934</v>
+        <v>591467</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>261729</v>
+        <v>258733</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>311861</v>
+        <v>311116</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>305218</v>
+        <v>304710</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>278603</v>
+        <v>278102</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>343743</v>
+        <v>344730</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>339254</v>
+        <v>339476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>526781</v>
+        <v>528668</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>647786</v>
+        <v>648038</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>635578</v>
+        <v>636483</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>117642</v>
+        <v>116972</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>139013</v>
+        <v>139053</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>184491</v>
+        <v>184970</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>129962</v>
+        <v>129966</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>171121</v>
+        <v>171738</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>181299</v>
+        <v>181293</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>257009</v>
+        <v>256630</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>318033</v>
+        <v>316511</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>372547</v>
+        <v>372730</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>144535</v>
+        <v>143314</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>166517</v>
+        <v>168090</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>201013</v>
+        <v>200654</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>157762</v>
+        <v>156662</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>193099</v>
+        <v>193269</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>200672</v>
+        <v>200619</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>292728</v>
+        <v>294336</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>353752</v>
+        <v>353340</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>397778</v>
+        <v>397317</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>184647</v>
+        <v>183887</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>194080</v>
+        <v>193522</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>184054</v>
+        <v>184484</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>180016</v>
+        <v>177812</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>191488</v>
+        <v>192129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>213537</v>
+        <v>214827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>373496</v>
+        <v>372049</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>397589</v>
+        <v>395742</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>405678</v>
+        <v>405535</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>211870</v>
+        <v>212879</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>222434</v>
+        <v>223066</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>212380</v>
+        <v>212231</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>209364</v>
+        <v>209349</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>220284</v>
+        <v>222068</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>239136</v>
+        <v>239012</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>415763</v>
+        <v>412860</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>437021</v>
+        <v>436157</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>441898</v>
+        <v>445869</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>451877</v>
+        <v>450496</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>487082</v>
+        <v>488194</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>525497</v>
+        <v>525433</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>466766</v>
+        <v>470299</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>514342</v>
+        <v>515798</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>586776</v>
+        <v>585382</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>927982</v>
+        <v>936575</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1019096</v>
+        <v>1015258</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1118203</v>
+        <v>1122523</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>493707</v>
+        <v>495046</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>534374</v>
+        <v>534930</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>567789</v>
+        <v>566377</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>510031</v>
+        <v>510303</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>560062</v>
+        <v>560476</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>619955</v>
+        <v>621352</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>990069</v>
+        <v>994123</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1082826</v>
+        <v>1083134</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1174055</v>
+        <v>1175646</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>574260</v>
+        <v>572793</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>674407</v>
+        <v>676789</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>675172</v>
+        <v>678057</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>641650</v>
+        <v>641249</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>720843</v>
+        <v>720486</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>735689</v>
+        <v>734618</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1229560</v>
+        <v>1230610</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1409016</v>
+        <v>1408201</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1422069</v>
+        <v>1422882</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>617519</v>
+        <v>614937</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>712680</v>
+        <v>713616</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>711324</v>
+        <v>712683</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>682593</v>
+        <v>681534</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>755626</v>
+        <v>756340</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>768302</v>
+        <v>769707</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1287441</v>
+        <v>1290605</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1457433</v>
+        <v>1461351</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1470111</v>
+        <v>1471668</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2448234</v>
+        <v>2451205</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2691549</v>
+        <v>2694874</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2818150</v>
+        <v>2816796</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2588674</v>
+        <v>2589470</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2903264</v>
+        <v>2897891</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3061913</v>
+        <v>3068111</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>5070274</v>
+        <v>5067651</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>5613060</v>
+        <v>5616047</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5907321</v>
+        <v>5906862</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2548410</v>
+        <v>2548211</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2792315</v>
+        <v>2790662</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2903506</v>
+        <v>2904149</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2683038</v>
+        <v>2684251</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2992681</v>
+        <v>2993026</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3142201</v>
+        <v>3144504</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>5207399</v>
+        <v>5200084</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>5749469</v>
+        <v>5752132</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>6032008</v>
+        <v>6028156</v>
       </c>
     </row>
     <row r="40">
